--- a/Data/ ERD_data_request.xlsx
+++ b/Data/ ERD_data_request.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEDE441-DF23-DA47-823D-CD7D7B4CBBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F89FFC2-A552-3949-B685-FAB89A5349D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="500" windowWidth="32900" windowHeight="18260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Absa" sheetId="1" r:id="rId1"/>
@@ -1131,11 +1131,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FY18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="FQ6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="BD6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="BK23" sqref="BK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1145,7 +1145,9 @@
     <col min="3" max="3" width="5.5" customWidth="1"/>
     <col min="4" max="4" width="59.5" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="129" width="9.6640625" customWidth="1"/>
+    <col min="6" max="64" width="9.6640625" customWidth="1"/>
+    <col min="65" max="65" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="129" width="9.6640625" customWidth="1"/>
     <col min="130" max="180" width="11" customWidth="1"/>
     <col min="181" max="181" width="11.1640625" customWidth="1"/>
     <col min="182" max="182" width="0.6640625" customWidth="1"/>
@@ -7540,7 +7542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F2D5BB-2D65-42A4-BF22-B3D5F3E845D9}">
   <dimension ref="A1:FY18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E48" sqref="E48"/>
       <selection pane="topRight" activeCell="E48" sqref="E48"/>
